--- a/A02R6E9_Orca Pricing Report.xlsx
+++ b/A02R6E9_Orca Pricing Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\Yuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3917CF81-2D24-405C-B518-91DCD6EC75D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8E9F97-B843-4CAF-A93E-0053FD22EE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="10035" xr2:uid="{0D4186B2-482B-4BF3-A05B-9361C99F8840}"/>
   </bookViews>
@@ -36,311 +36,326 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="118">
   <si>
     <t>Pricing Report</t>
   </si>
   <si>
+    <t>**** CONSTRUCTION DETAILS ****</t>
+  </si>
+  <si>
+    <t>Part A</t>
+  </si>
+  <si>
+    <t>FRC: 845C</t>
+  </si>
+  <si>
+    <t>ITEM DESCRIPTION</t>
+  </si>
+  <si>
+    <t>MCF</t>
+  </si>
+  <si>
+    <t>FKF</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>UNIT COST</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>=======</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>TOTAL MATERIAL</t>
+  </si>
+  <si>
+    <t>PLACING LABOR</t>
+  </si>
+  <si>
+    <t>0.00 HRS</t>
+  </si>
+  <si>
+    <t>SPLICING LABOR</t>
+  </si>
+  <si>
+    <t>TOTAL LABOR</t>
+  </si>
+  <si>
+    <t>CONTRACT</t>
+  </si>
+  <si>
+    <t>TOTAL CONTRACT</t>
+  </si>
+  <si>
+    <t>ENGINEERING</t>
+  </si>
+  <si>
+    <t>TOTAL ENGINEERING</t>
+  </si>
+  <si>
+    <t>TOTAL MATL, LABOR, CONTRACT, ENGR</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>LABOR HOURS:</t>
+  </si>
+  <si>
+    <t>ENGR HOURS:</t>
+  </si>
+  <si>
+    <t>OVERHEAD COST:</t>
+  </si>
+  <si>
+    <t>FRC: 822C</t>
+  </si>
+  <si>
+    <t>Exempt</t>
+  </si>
+  <si>
+    <t>EXEMPT MATERIAL --- TELCO</t>
+  </si>
+  <si>
+    <t>SUPPLY EXPENSE</t>
+  </si>
+  <si>
+    <t>EVOLV4/10OTIP</t>
+  </si>
+  <si>
+    <t>EVOLV8/10OTIP</t>
+  </si>
+  <si>
+    <t>FIBER-TELCO</t>
+  </si>
+  <si>
+    <t>FNAP-CBL-216EUC</t>
+  </si>
+  <si>
+    <t>COST ADJUSTMENT - OTHER</t>
+  </si>
+  <si>
+    <t>FRC: 8645C</t>
+  </si>
+  <si>
+    <t>HANDHOLE10X15</t>
+  </si>
+  <si>
+    <t>INNERDUCT-1</t>
+  </si>
+  <si>
+    <t>**** DETAILED PRICING SUMMARY ****</t>
+  </si>
+  <si>
+    <t>Part C</t>
+  </si>
+  <si>
+    <t>PLANT TYPE</t>
+  </si>
+  <si>
+    <t>GROSS ADDS</t>
+  </si>
+  <si>
+    <t>PLANT RETIRED</t>
+  </si>
+  <si>
+    <t>COST OF REMOVAL</t>
+  </si>
+  <si>
+    <t>MAINTENANCE</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>TOTAL MCF</t>
+  </si>
+  <si>
+    <t>TOTAL FKF</t>
+  </si>
+  <si>
+    <t>GROSS EXPENDITURES</t>
+  </si>
+  <si>
+    <t>NET ADDITIONS</t>
+  </si>
+  <si>
+    <t>TOTAL LABOR HOURS:</t>
+  </si>
+  <si>
+    <t>TOTAL ENGR HOURS:</t>
+  </si>
+  <si>
+    <t>TOTAL M DOLLARS:</t>
+  </si>
+  <si>
+    <t>TOTAL OVERHEAD DOLLARS:</t>
+  </si>
+  <si>
+    <t>**** MCF/FKF DETAIL SUMMARY ****</t>
+  </si>
+  <si>
+    <t>Part D</t>
+  </si>
+  <si>
+    <t>CABLE TYPE</t>
+  </si>
+  <si>
+    <t>#PRS</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>PULP</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>FIBER TYPE</t>
+  </si>
+  <si>
+    <t>#FBRS</t>
+  </si>
+  <si>
+    <t>**** DETAILED PRICING ERROR LISTING ****</t>
+  </si>
+  <si>
+    <t>Part E</t>
+  </si>
+  <si>
+    <t>THE FOLLOWING ERROR MESSAGE(S) APPLY TO FRC: errorMessage</t>
+  </si>
+  <si>
+    <t>NO ERRORS OR WARNINGS WERE GENERATED IN PRODUCING THIS REPORT</t>
+  </si>
+  <si>
+    <t>**** BILLING SUMMARY ****</t>
+  </si>
+  <si>
+    <t>Part F</t>
+  </si>
+  <si>
+    <t>Billing?: Y</t>
+  </si>
+  <si>
+    <t>COST ESTIMATE AS PER REQUEST</t>
+  </si>
+  <si>
+    <t>(1) ENGINEERING COST</t>
+  </si>
+  <si>
+    <t>845C</t>
+  </si>
+  <si>
+    <t>822C</t>
+  </si>
+  <si>
+    <t>8645C</t>
+  </si>
+  <si>
+    <t>(2) PLANT LABOR COST</t>
+  </si>
+  <si>
+    <t>(3) MATERIAL COST</t>
+  </si>
+  <si>
+    <t>(4) CONTRACT COST</t>
+  </si>
+  <si>
+    <t>(5) OVERHEAD COST</t>
+  </si>
+  <si>
+    <t>Subtotal Cost</t>
+  </si>
+  <si>
+    <t>DISTRIBUTIONS OF COLLECTIONS</t>
+  </si>
+  <si>
+    <t>Total Cost minus Salvage</t>
+  </si>
+  <si>
+    <t>**** LABOR RATE SUMMARY ****</t>
+  </si>
+  <si>
+    <t>Part L</t>
+  </si>
+  <si>
+    <t>PAC CLASS</t>
+  </si>
+  <si>
+    <t>LABOR CLASS</t>
+  </si>
+  <si>
+    <t>CREW ID</t>
+  </si>
+  <si>
+    <t>RESOURCE DESCRIPTION</t>
+  </si>
+  <si>
+    <t>HOURS</t>
+  </si>
+  <si>
+    <t>LOADED LABOR RATE/HOUR</t>
+  </si>
+  <si>
+    <t>AP/S</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>CONT-PL-CABLE</t>
+  </si>
+  <si>
+    <t>FNAP-CBL-048EUC</t>
+  </si>
+  <si>
+    <t>TREE</t>
+  </si>
+  <si>
+    <t>EVOLV12/10OTIP</t>
+  </si>
+  <si>
+    <t>FNAP-CBL-024</t>
+  </si>
+  <si>
+    <t>FNAP-CBL-144EUC</t>
+  </si>
+  <si>
+    <t>Pricing Date: 05/24/2024</t>
+  </si>
+  <si>
     <t>RQST By: ROMERO ONIRIA</t>
   </si>
   <si>
-    <t>**** CONSTRUCTION DETAILS ****</t>
-  </si>
-  <si>
-    <t>Part A</t>
-  </si>
-  <si>
-    <t>FRC: 845C</t>
-  </si>
-  <si>
-    <t>ITEM DESCRIPTION</t>
-  </si>
-  <si>
-    <t>MCF</t>
-  </si>
-  <si>
-    <t>FKF</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>UNIT COST</t>
-  </si>
-  <si>
-    <t>AMOUNT</t>
-  </si>
-  <si>
-    <t>=======</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>TOTAL MATERIAL</t>
-  </si>
-  <si>
-    <t>PLACING LABOR</t>
-  </si>
-  <si>
-    <t>0.00 HRS</t>
-  </si>
-  <si>
-    <t>SPLICING LABOR</t>
-  </si>
-  <si>
-    <t>TOTAL LABOR</t>
-  </si>
-  <si>
-    <t>CONTRACT</t>
-  </si>
-  <si>
-    <t>TOTAL CONTRACT</t>
-  </si>
-  <si>
-    <t>ENGINEERING</t>
-  </si>
-  <si>
-    <t>TOTAL ENGINEERING</t>
-  </si>
-  <si>
-    <t>TOTAL MATL, LABOR, CONTRACT, ENGR</t>
-  </si>
-  <si>
-    <t>GRAND TOTAL</t>
-  </si>
-  <si>
-    <t>LABOR HOURS:</t>
-  </si>
-  <si>
-    <t>ENGR HOURS:</t>
-  </si>
-  <si>
-    <t>OVERHEAD COST:</t>
-  </si>
-  <si>
-    <t>FRC: 822C</t>
-  </si>
-  <si>
-    <t>Exempt</t>
-  </si>
-  <si>
-    <t>EXEMPT MATERIAL --- TELCO</t>
-  </si>
-  <si>
-    <t>SUPPLY EXPENSE</t>
-  </si>
-  <si>
-    <t>EVOLV4/10OTIP</t>
-  </si>
-  <si>
-    <t>EVOLV8/10OTIP</t>
+    <t>Generated: 05/24/2024, 03:51 PM</t>
+  </si>
+  <si>
+    <t>CFAS Project #: A02R6E9</t>
+  </si>
+  <si>
+    <t>CMC: ALCBH</t>
   </si>
   <si>
     <t>5BQ2MT-216</t>
   </si>
   <si>
-    <t>FIBER-TELCO</t>
-  </si>
-  <si>
-    <t>FNAP-CBL-216EUC</t>
-  </si>
-  <si>
-    <t>COST ADJUSTMENT - OTHER</t>
-  </si>
-  <si>
-    <t>FRC: 8645C</t>
-  </si>
-  <si>
-    <t>HANDHOLE10X15</t>
-  </si>
-  <si>
-    <t>INNERDUCT-1</t>
-  </si>
-  <si>
-    <t>**** DETAILED PRICING SUMMARY ****</t>
-  </si>
-  <si>
-    <t>Part C</t>
-  </si>
-  <si>
-    <t>PLANT TYPE</t>
-  </si>
-  <si>
-    <t>GROSS ADDS</t>
-  </si>
-  <si>
-    <t>PLANT RETIRED</t>
-  </si>
-  <si>
-    <t>COST OF REMOVAL</t>
-  </si>
-  <si>
-    <t>MAINTENANCE</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>TOTAL MCF</t>
-  </si>
-  <si>
-    <t>TOTAL FKF</t>
-  </si>
-  <si>
-    <t>GROSS EXPENDITURES</t>
-  </si>
-  <si>
-    <t>NET ADDITIONS</t>
-  </si>
-  <si>
-    <t>TOTAL LABOR HOURS:</t>
-  </si>
-  <si>
-    <t>TOTAL ENGR HOURS:</t>
-  </si>
-  <si>
-    <t>TOTAL M DOLLARS:</t>
-  </si>
-  <si>
-    <t>TOTAL OVERHEAD DOLLARS:</t>
-  </si>
-  <si>
-    <t>**** MCF/FKF DETAIL SUMMARY ****</t>
-  </si>
-  <si>
-    <t>Part D</t>
-  </si>
-  <si>
-    <t>CABLE TYPE</t>
-  </si>
-  <si>
-    <t>#PRS</t>
-  </si>
-  <si>
-    <t>PIC</t>
-  </si>
-  <si>
-    <t>PULP</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>FIBER TYPE</t>
-  </si>
-  <si>
-    <t>#FBRS</t>
-  </si>
-  <si>
-    <t>**** DETAILED PRICING ERROR LISTING ****</t>
-  </si>
-  <si>
-    <t>Part E</t>
-  </si>
-  <si>
-    <t>THE FOLLOWING ERROR MESSAGE(S) APPLY TO FRC: errorMessage</t>
-  </si>
-  <si>
-    <t>NO ERRORS OR WARNINGS WERE GENERATED IN PRODUCING THIS REPORT</t>
-  </si>
-  <si>
-    <t>**** BILLING SUMMARY ****</t>
-  </si>
-  <si>
-    <t>Part F</t>
-  </si>
-  <si>
-    <t>Billing?: Y</t>
-  </si>
-  <si>
-    <t>COST ESTIMATE AS PER REQUEST</t>
-  </si>
-  <si>
-    <t>(1) ENGINEERING COST</t>
-  </si>
-  <si>
-    <t>845C</t>
-  </si>
-  <si>
-    <t>822C</t>
-  </si>
-  <si>
-    <t>8645C</t>
-  </si>
-  <si>
-    <t>(2) PLANT LABOR COST</t>
-  </si>
-  <si>
-    <t>(3) MATERIAL COST</t>
-  </si>
-  <si>
-    <t>(4) CONTRACT COST</t>
-  </si>
-  <si>
-    <t>(5) OVERHEAD COST</t>
-  </si>
-  <si>
-    <t>Subtotal Cost</t>
-  </si>
-  <si>
-    <t>DISTRIBUTIONS OF COLLECTIONS</t>
-  </si>
-  <si>
-    <t>Total Cost minus Salvage</t>
-  </si>
-  <si>
-    <t>**** LABOR RATE SUMMARY ****</t>
-  </si>
-  <si>
-    <t>Part L</t>
-  </si>
-  <si>
-    <t>PAC CLASS</t>
-  </si>
-  <si>
-    <t>LABOR CLASS</t>
-  </si>
-  <si>
-    <t>CREW ID</t>
-  </si>
-  <si>
-    <t>RESOURCE DESCRIPTION</t>
-  </si>
-  <si>
-    <t>HOURS</t>
-  </si>
-  <si>
-    <t>LOADED LABOR RATE/HOUR</t>
-  </si>
-  <si>
-    <t>AP/S</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>ED</t>
-  </si>
-  <si>
-    <t>CFAS Project #: A02R6E9</t>
-  </si>
-  <si>
-    <t>CMC: ALCBH</t>
-  </si>
-  <si>
-    <t>Pricing Date: 05/20/2024</t>
-  </si>
-  <si>
-    <t>CONT-PL-CABLE</t>
-  </si>
-  <si>
-    <t>FNAP-CBL-048EUC</t>
-  </si>
-  <si>
     <t>18.63 HRS</t>
   </si>
   <si>
@@ -350,37 +365,22 @@
     <t>15.54 HRS</t>
   </si>
   <si>
-    <t>23.99 HRS</t>
-  </si>
-  <si>
-    <t>TREE</t>
-  </si>
-  <si>
-    <t>EVOLV12/10OTIP</t>
-  </si>
-  <si>
-    <t>FNAP-CBL-024</t>
-  </si>
-  <si>
-    <t>FNAP-CBL-024EUC</t>
+    <t>19.00 HRS</t>
   </si>
   <si>
     <t>FNAP-CBL-048</t>
   </si>
   <si>
-    <t>FNAP-CBL-144EUC</t>
-  </si>
-  <si>
-    <t>339.34 HRS</t>
-  </si>
-  <si>
-    <t>242.88 HRS</t>
+    <t>267.24 HRS</t>
+  </si>
+  <si>
+    <t>170.78 HRS</t>
   </si>
   <si>
     <t>96.46 HRS</t>
   </si>
   <si>
-    <t>47.43 HRS</t>
+    <t>37.76 HRS</t>
   </si>
   <si>
     <t>0.44 HRS</t>
@@ -390,9 +390,6 @@
   </si>
   <si>
     <t>SPRUIELL / TELCO</t>
-  </si>
-  <si>
-    <t>Generated: 05/20/2024, 01:52 PM</t>
   </si>
 </sst>
 </file>
@@ -851,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42408199-E5D6-4EDF-9571-3533482D19AB}">
-  <dimension ref="A1:G232"/>
+  <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G232"/>
+      <selection sqref="A1:G230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -869,69 +866,69 @@
     </row>
     <row r="3" spans="1:7" ht="85.5">
       <c r="A3" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="71.25">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85.5">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="71.25">
       <c r="A7" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5">
       <c r="A8" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.5">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="57">
       <c r="A10" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="42.75">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="E11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="F11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="G11" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="42.75">
       <c r="A12" s="6"/>
       <c r="B12" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -943,7 +940,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -952,7 +949,7 @@
     <row r="13" spans="1:7" ht="28.5">
       <c r="A13" s="6"/>
       <c r="B13" s="10" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -973,7 +970,7 @@
     <row r="14" spans="1:7" ht="42.75">
       <c r="A14" s="6"/>
       <c r="B14" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -985,7 +982,7 @@
         <v>605</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -994,7 +991,7 @@
     <row r="15" spans="1:7" ht="42.75">
       <c r="A15" s="6"/>
       <c r="B15" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -1015,7 +1012,7 @@
     <row r="16" spans="1:7" ht="28.5">
       <c r="A16" s="6"/>
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1027,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -1036,7 +1033,7 @@
     <row r="17" spans="1:7" ht="28.5">
       <c r="A17" s="6"/>
       <c r="B17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1067,15 +1064,15 @@
       <c r="A19" s="6"/>
       <c r="B19" s="10"/>
       <c r="C19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1105,12 +1102,12 @@
     <row r="22" spans="1:7" ht="71.25">
       <c r="A22" s="6"/>
       <c r="B22" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7">
         <v>35.5</v>
@@ -1122,7 +1119,7 @@
     <row r="23" spans="1:7" ht="42.75">
       <c r="A23" s="6"/>
       <c r="B23" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1147,10 +1144,10 @@
     </row>
     <row r="25" spans="1:7" ht="42.75">
       <c r="A25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1163,12 +1160,12 @@
     <row r="26" spans="1:7" ht="42.75">
       <c r="A26" s="6"/>
       <c r="B26" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F26" s="7">
         <v>144.88999999999999</v>
@@ -1180,12 +1177,12 @@
     <row r="27" spans="1:7" ht="42.75">
       <c r="A27" s="6"/>
       <c r="B27" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F27" s="7">
         <v>144.88999999999999</v>
@@ -1205,10 +1202,10 @@
     </row>
     <row r="29" spans="1:7" ht="28.5">
       <c r="A29" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1221,14 +1218,14 @@
     <row r="30" spans="1:7" ht="28.5">
       <c r="A30" s="6"/>
       <c r="B30" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="11">
-        <v>30541.51</v>
+        <v>23633.56</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1242,34 +1239,34 @@
     </row>
     <row r="32" spans="1:7" ht="42.75">
       <c r="A32" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="11">
-        <v>30541.51</v>
+        <v>23633.56</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="28.5">
       <c r="A33" s="6"/>
       <c r="B33" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F33" s="7">
         <v>122.22</v>
       </c>
       <c r="G33" s="11">
-        <v>2931.88</v>
+        <v>2322.6</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1283,43 +1280,43 @@
     </row>
     <row r="35" spans="1:7" ht="42.75">
       <c r="A35" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="11">
-        <v>2931.88</v>
+        <v>2322.6</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="85.5">
       <c r="A36" s="6"/>
       <c r="B36" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="11">
-        <v>39094.86</v>
+        <v>31577.62</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="57">
       <c r="A37" s="6"/>
       <c r="B37" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="11">
-        <v>8548</v>
+        <v>7348</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1333,17 +1330,17 @@
     </row>
     <row r="39" spans="1:7" ht="28.5">
       <c r="A39" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="11">
-        <v>47642.86</v>
+        <v>38925.620000000003</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1358,7 +1355,7 @@
     <row r="41" spans="1:7" ht="28.5">
       <c r="A41" s="6"/>
       <c r="B41" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1371,12 +1368,12 @@
     <row r="42" spans="1:7" ht="28.5">
       <c r="A42" s="6"/>
       <c r="B42" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7">
-        <v>23.99</v>
+        <v>19</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="6"/>
@@ -1384,7 +1381,7 @@
     <row r="43" spans="1:7" ht="42.75">
       <c r="A43" s="6"/>
       <c r="B43" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1396,69 +1393,69 @@
     </row>
     <row r="44" spans="1:7" ht="85.5">
       <c r="A44" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="71.25">
       <c r="A45" s="3" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="85.5">
       <c r="A46" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="71.25">
       <c r="A48" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="28.5">
       <c r="A49" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="28.5">
       <c r="A50" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="57">
       <c r="A51" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="42.75">
       <c r="A52" s="18"/>
       <c r="B52" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="D52" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="E52" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="F52" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="G52" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="6"/>
       <c r="B53" s="10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
@@ -1467,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="7">
-        <v>515</v>
+        <v>575</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G53" s="6">
         <v>0</v>
@@ -1479,7 +1476,7 @@
     <row r="54" spans="1:7" ht="28.5">
       <c r="A54" s="6"/>
       <c r="B54" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" s="7">
         <v>0</v>
@@ -1500,7 +1497,7 @@
     <row r="55" spans="1:7" ht="28.5">
       <c r="A55" s="6"/>
       <c r="B55" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
@@ -1512,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G55" s="6">
         <v>0</v>
@@ -1521,7 +1518,7 @@
     <row r="56" spans="1:7" ht="42.75">
       <c r="A56" s="6"/>
       <c r="B56" s="10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C56" s="7">
         <v>0</v>
@@ -1533,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G56" s="6">
         <v>0</v>
@@ -1542,28 +1539,28 @@
     <row r="57" spans="1:7" ht="42.75">
       <c r="A57" s="6"/>
       <c r="B57" s="10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C57" s="7">
         <v>0</v>
       </c>
       <c r="D57" s="7">
-        <v>103.34399999999999</v>
+        <v>132.45599999999999</v>
       </c>
       <c r="E57" s="7">
-        <v>4386</v>
+        <v>5619</v>
       </c>
       <c r="F57" s="7">
         <v>0.32</v>
       </c>
       <c r="G57" s="11">
-        <v>1403.52</v>
+        <v>1798.08</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="28.5">
       <c r="A58" s="6"/>
       <c r="B58" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C58" s="7">
         <v>0</v>
@@ -1572,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="7">
-        <v>8848</v>
+        <v>552</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G58" s="6">
         <v>0</v>
@@ -1584,240 +1581,232 @@
     <row r="59" spans="1:7" ht="42.75">
       <c r="A59" s="6"/>
       <c r="B59" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C59" s="7">
         <v>0</v>
       </c>
       <c r="D59" s="7">
-        <v>29.352</v>
+        <v>60.287999999999997</v>
       </c>
       <c r="E59" s="7">
-        <v>1243</v>
+        <v>1276</v>
       </c>
       <c r="F59" s="7">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="G59" s="6">
-        <v>447.48</v>
+        <v>574.20000000000005</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="42.75">
       <c r="A60" s="6"/>
       <c r="B60" s="10" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="C60" s="7">
         <v>0</v>
       </c>
       <c r="D60" s="7">
-        <v>60.287999999999997</v>
+        <v>296.13600000000002</v>
       </c>
       <c r="E60" s="7">
-        <v>1276</v>
+        <v>1391</v>
       </c>
       <c r="F60" s="7">
-        <v>0.45</v>
-      </c>
-      <c r="G60" s="6">
-        <v>574.20000000000005</v>
+        <v>1.8</v>
+      </c>
+      <c r="G60" s="11">
+        <v>2503.8000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="42.75">
       <c r="A61" s="6"/>
       <c r="B61" s="10" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="C61" s="7">
         <v>0</v>
       </c>
       <c r="D61" s="7">
-        <v>296.13600000000002</v>
+        <v>367.2</v>
       </c>
       <c r="E61" s="7">
-        <v>1391</v>
+        <v>2570</v>
       </c>
       <c r="F61" s="7">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="G61" s="11">
-        <v>2503.8000000000002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="42.75">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="6"/>
-      <c r="B62" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" s="7">
-        <v>0</v>
-      </c>
-      <c r="D62" s="7">
-        <v>367.2</v>
-      </c>
-      <c r="E62" s="7">
-        <v>2570</v>
-      </c>
-      <c r="F62" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="G62" s="11">
-        <v>3084</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="B62" s="10"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:7" ht="28.5">
       <c r="A63" s="6"/>
       <c r="B63" s="10"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
+      <c r="C63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
-      <c r="G63" s="6"/>
-    </row>
-    <row r="64" spans="1:7" ht="28.5">
+      <c r="G63" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="6"/>
       <c r="B64" s="10"/>
-      <c r="C64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>11</v>
+      <c r="C64" s="7">
+        <v>0</v>
+      </c>
+      <c r="D64" s="7">
+        <v>856.33600000000001</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="6" t="s">
-        <v>11</v>
+      <c r="G64" s="11">
+        <v>12040.9</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="6"/>
       <c r="B65" s="10"/>
-      <c r="C65" s="7">
-        <v>0</v>
-      </c>
-      <c r="D65" s="7">
-        <v>856.57600000000002</v>
-      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="11">
-        <v>12093.82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" ht="71.25">
       <c r="A66" s="6"/>
-      <c r="B66" s="10"/>
+      <c r="B66" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="1:7" ht="71.25">
+      <c r="E66" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F66" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="G66" s="11">
+        <v>9488.2199999999993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="42.75">
       <c r="A67" s="6"/>
       <c r="B67" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="7" t="s">
-        <v>111</v>
+      <c r="E67" s="7">
+        <v>21529.119999999999</v>
       </c>
       <c r="F67" s="7">
-        <v>35.5</v>
+        <v>0.05</v>
       </c>
       <c r="G67" s="11">
-        <v>12047.9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="42.75">
+        <v>1076.46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="6"/>
-      <c r="B68" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B68" s="10"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="7">
-        <v>24141.72</v>
-      </c>
-      <c r="F68" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="G68" s="11">
-        <v>1207.0899999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="6"/>
-      <c r="B69" s="10"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7" ht="42.75">
+      <c r="A69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
-      <c r="G69" s="6"/>
+      <c r="G69" s="11">
+        <v>22605.57</v>
+      </c>
     </row>
     <row r="70" spans="1:7" ht="42.75">
-      <c r="A70" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="A70" s="6"/>
       <c r="B70" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
+      <c r="E70" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" s="7">
+        <v>144.88999999999999</v>
+      </c>
       <c r="G70" s="11">
-        <v>25348.799999999999</v>
+        <v>24744.57</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="42.75">
       <c r="A71" s="6"/>
       <c r="B71" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F71" s="7">
         <v>144.88999999999999</v>
       </c>
       <c r="G71" s="11">
-        <v>35190.43</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="42.75">
+        <v>13976.16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="6"/>
-      <c r="B72" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="B72" s="10"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F72" s="7">
-        <v>144.88999999999999</v>
-      </c>
-      <c r="G72" s="11">
-        <v>13976.16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="6"/>
-      <c r="B73" s="10"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="1:7" ht="28.5">
+      <c r="A73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-      <c r="G73" s="6"/>
+      <c r="G73" s="11">
+        <v>38720.730000000003</v>
+      </c>
     </row>
     <row r="74" spans="1:7" ht="28.5">
-      <c r="A74" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="A74" s="6"/>
       <c r="B74" s="10" t="s">
         <v>17</v>
       </c>
@@ -1826,76 +1815,76 @@
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="11">
-        <v>49166.59</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="28.5">
+        <v>1483.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="6"/>
-      <c r="B75" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="B75" s="10"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
-      <c r="G75" s="11">
-        <v>1328.7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="6"/>
-      <c r="B76" s="10"/>
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:7" ht="42.75">
+      <c r="A76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
-      <c r="G76" s="6"/>
-    </row>
-    <row r="77" spans="1:7" ht="42.75">
-      <c r="A77" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" s="11">
+        <v>1483.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="28.5">
+      <c r="A77" s="6"/>
       <c r="B77" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
+      <c r="E77" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F77" s="7">
+        <v>122.22</v>
+      </c>
       <c r="G77" s="11">
-        <v>1328.7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="28.5">
+        <v>4615.45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="6"/>
-      <c r="B78" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="B78" s="10"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
-      <c r="E78" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F78" s="7">
-        <v>122.22</v>
-      </c>
-      <c r="G78" s="11">
-        <v>5796.86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="6"/>
-      <c r="B79" s="10"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="1:7" ht="42.75">
+      <c r="A79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="6"/>
-    </row>
-    <row r="80" spans="1:7" ht="42.75">
-      <c r="A80" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" s="11">
+        <v>4615.45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="85.5">
+      <c r="A80" s="6"/>
       <c r="B80" s="10" t="s">
         <v>21</v>
       </c>
@@ -1904,65 +1893,65 @@
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="11">
-        <v>5796.86</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="85.5">
+        <v>67425.25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="57">
       <c r="A81" s="6"/>
       <c r="B81" s="10" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="11">
-        <v>81640.960000000006</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="57">
+        <v>23257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="6"/>
-      <c r="B82" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="B82" s="10"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
-      <c r="G82" s="11">
-        <v>24247</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="6"/>
-      <c r="B83" s="10"/>
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="1:7" ht="28.5">
+      <c r="A83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
-      <c r="G83" s="6"/>
-    </row>
-    <row r="84" spans="1:7" ht="28.5">
-      <c r="A84" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="G83" s="11">
+        <v>90682.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="6"/>
+      <c r="B84" s="10"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="11">
-        <v>105887.96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="1:7" ht="28.5">
       <c r="A85" s="6"/>
-      <c r="B85" s="10"/>
+      <c r="B85" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
+      <c r="E85" s="7">
+        <v>267.24</v>
+      </c>
       <c r="F85" s="7"/>
       <c r="G85" s="6"/>
     </row>
@@ -1974,12 +1963,12 @@
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7">
-        <v>339.34</v>
+        <v>37.76</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="1:7" ht="28.5">
+    <row r="87" spans="1:7" ht="42.75">
       <c r="A87" s="6"/>
       <c r="B87" s="10" t="s">
         <v>25</v>
@@ -1987,89 +1976,97 @@
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7">
-        <v>47.43</v>
+        <v>0</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="1:7" ht="42.75">
-      <c r="A88" s="6"/>
-      <c r="B88" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7">
-        <v>0</v>
-      </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="6"/>
-    </row>
-    <row r="89" spans="1:7" ht="85.5">
+    <row r="88" spans="1:7" ht="85.5">
+      <c r="A88" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="71.25">
       <c r="A89" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="71.25">
-      <c r="A90" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="85.5">
+      <c r="A90" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="85.5">
+    <row r="91" spans="1:7">
       <c r="A91" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="71.25">
+    <row r="92" spans="1:7" ht="71.25">
+      <c r="A92" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="28.5">
       <c r="A93" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="28.5">
       <c r="A94" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="28.5">
-      <c r="A95" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="57">
-      <c r="A96" s="5" t="s">
-        <v>98</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="57">
+      <c r="A95" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="42.75">
+      <c r="A96" s="18"/>
+      <c r="B96" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="42.75">
-      <c r="A97" s="18"/>
-      <c r="B97" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="42.75">
+      <c r="A97" s="6"/>
+      <c r="B97" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" s="7">
+        <v>0</v>
+      </c>
+      <c r="D97" s="7">
+        <v>0</v>
+      </c>
+      <c r="E97" s="7">
+        <v>2</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="28.5">
       <c r="A98" s="6"/>
       <c r="B98" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C98" s="7">
         <v>0</v>
@@ -2078,74 +2075,62 @@
         <v>0</v>
       </c>
       <c r="E98" s="7">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G98" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="28.5">
+    <row r="99" spans="1:7">
       <c r="A99" s="6"/>
-      <c r="B99" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C99" s="7">
-        <v>0</v>
-      </c>
-      <c r="D99" s="7">
-        <v>0</v>
-      </c>
-      <c r="E99" s="7">
-        <v>184</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G99" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="B99" s="10"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="1:7" ht="28.5">
       <c r="A100" s="6"/>
       <c r="B100" s="10"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
+      <c r="C100" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
-      <c r="G100" s="6"/>
-    </row>
-    <row r="101" spans="1:7" ht="28.5">
+      <c r="G100" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="6"/>
       <c r="B101" s="10"/>
-      <c r="C101" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>11</v>
+      <c r="C101" s="7">
+        <v>0</v>
+      </c>
+      <c r="D101" s="7">
+        <v>0</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
-      <c r="G101" s="6" t="s">
-        <v>11</v>
+      <c r="G101" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="6"/>
       <c r="B102" s="10"/>
-      <c r="C102" s="7">
-        <v>0</v>
-      </c>
-      <c r="D102" s="7">
-        <v>0</v>
-      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
-      <c r="G102" s="6">
-        <v>0</v>
-      </c>
+      <c r="G102" s="6"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="6"/>
@@ -2156,26 +2141,34 @@
       <c r="F103" s="7"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="6"/>
-      <c r="B104" s="10"/>
+    <row r="104" spans="1:7" ht="42.75">
+      <c r="A104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
-      <c r="G104" s="6"/>
+      <c r="G104" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:7" ht="42.75">
-      <c r="A105" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="A105" s="6"/>
       <c r="B105" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
+      <c r="E105" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="7">
+        <v>144.88999999999999</v>
+      </c>
       <c r="G105" s="6">
         <v>0</v>
       </c>
@@ -2183,12 +2176,12 @@
     <row r="106" spans="1:7" ht="42.75">
       <c r="A106" s="6"/>
       <c r="B106" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F106" s="7">
         <v>144.88999999999999</v>
@@ -2197,36 +2190,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="42.75">
+    <row r="107" spans="1:7">
       <c r="A107" s="6"/>
-      <c r="B107" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="B107" s="10"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
-      <c r="E107" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" s="7">
-        <v>144.88999999999999</v>
-      </c>
-      <c r="G107" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="6"/>
-      <c r="B108" s="10"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="6"/>
+    </row>
+    <row r="108" spans="1:7" ht="28.5">
+      <c r="A108" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
-      <c r="G108" s="6"/>
+      <c r="G108" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:7" ht="28.5">
-      <c r="A109" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="A109" s="6"/>
       <c r="B109" s="10" t="s">
         <v>17</v>
       </c>
@@ -2235,76 +2224,76 @@
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="28.5">
+        <v>953.48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="6"/>
-      <c r="B110" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="B110" s="10"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
-      <c r="G110" s="6">
-        <v>953.48</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="6"/>
-      <c r="B111" s="10"/>
+      <c r="G110" s="6"/>
+    </row>
+    <row r="111" spans="1:7" ht="42.75">
+      <c r="A111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
-      <c r="G111" s="6"/>
-    </row>
-    <row r="112" spans="1:7" ht="42.75">
-      <c r="A112" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" s="6">
+        <v>953.48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="28.5">
+      <c r="A112" s="6"/>
       <c r="B112" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
+      <c r="E112" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F112" s="7">
+        <v>122.22</v>
+      </c>
       <c r="G112" s="6">
-        <v>953.48</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="28.5">
+        <v>53.39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="6"/>
-      <c r="B113" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="B113" s="10"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
-      <c r="E113" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F113" s="7">
-        <v>122.22</v>
-      </c>
-      <c r="G113" s="6">
-        <v>53.39</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="6"/>
-      <c r="B114" s="10"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="6"/>
+    </row>
+    <row r="114" spans="1:7" ht="42.75">
+      <c r="A114" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
-      <c r="G114" s="6"/>
-    </row>
-    <row r="115" spans="1:7" ht="42.75">
-      <c r="A115" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" s="6">
+        <v>53.39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="85.5">
+      <c r="A115" s="6"/>
       <c r="B115" s="10" t="s">
         <v>21</v>
       </c>
@@ -2312,66 +2301,66 @@
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
-      <c r="G115" s="6">
-        <v>53.39</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="85.5">
+      <c r="G115" s="11">
+        <v>1006.87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="57">
       <c r="A116" s="6"/>
       <c r="B116" s="10" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
-      <c r="G116" s="11">
-        <v>1006.87</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="57">
+      <c r="G116" s="6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="6"/>
-      <c r="B117" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="B117" s="10"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
-      <c r="G117" s="6">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="6"/>
-      <c r="B118" s="10"/>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" spans="1:7" ht="28.5">
+      <c r="A118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
-      <c r="G118" s="6"/>
-    </row>
-    <row r="119" spans="1:7" ht="28.5">
-      <c r="A119" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="G118" s="11">
+        <v>1171.8699999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="6"/>
+      <c r="B119" s="10"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
-      <c r="G119" s="11">
-        <v>1171.8699999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="G119" s="6"/>
+    </row>
+    <row r="120" spans="1:7" ht="28.5">
       <c r="A120" s="6"/>
-      <c r="B120" s="10"/>
+      <c r="B120" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
+      <c r="E120" s="7">
+        <v>0</v>
+      </c>
       <c r="F120" s="7"/>
       <c r="G120" s="6"/>
     </row>
@@ -2383,12 +2372,12 @@
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="F121" s="7"/>
       <c r="G121" s="6"/>
     </row>
-    <row r="122" spans="1:7" ht="28.5">
+    <row r="122" spans="1:7" ht="42.75">
       <c r="A122" s="6"/>
       <c r="B122" s="10" t="s">
         <v>25</v>
@@ -2396,199 +2385,197 @@
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="F122" s="7"/>
       <c r="G122" s="6"/>
     </row>
-    <row r="123" spans="1:7" ht="42.75">
-      <c r="A123" s="6"/>
-      <c r="B123" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7">
-        <v>0</v>
-      </c>
-      <c r="F123" s="7"/>
-      <c r="G123" s="6"/>
-    </row>
-    <row r="124" spans="1:7" ht="85.5">
+    <row r="123" spans="1:7" ht="85.5">
+      <c r="A123" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="71.25">
       <c r="A124" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="71.25">
-      <c r="A125" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="99.75">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="99.75">
+      <c r="A125" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="71.25">
+      <c r="A127" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="28.5">
+      <c r="A128" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="57">
+      <c r="A129" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="57">
+      <c r="A130" s="21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="4" t="s">
+      <c r="B130" s="20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="71.25">
-      <c r="A128" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="28.5">
-      <c r="A129" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="57">
-      <c r="A130" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="57">
-      <c r="A131" s="21" t="s">
+      <c r="C130" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B131" s="20" t="s">
+      <c r="D130" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C131" s="20" t="s">
+      <c r="E130" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D131" s="20" t="s">
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E131" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B132" s="12">
-        <v>154702.69</v>
-      </c>
-      <c r="C132" s="7">
-        <v>0</v>
-      </c>
-      <c r="D132" s="7">
-        <v>0</v>
-      </c>
-      <c r="E132" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="28.5">
+      <c r="B131" s="12">
+        <v>130779.74</v>
+      </c>
+      <c r="C131" s="7">
+        <v>0</v>
+      </c>
+      <c r="D131" s="7">
+        <v>0</v>
+      </c>
+      <c r="E131" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="28.5">
+      <c r="A132" s="8"/>
+      <c r="B132" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="8"/>
-      <c r="B133" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>11</v>
+      <c r="B133" s="12">
+        <v>130779.74</v>
+      </c>
+      <c r="C133" s="7">
+        <v>0</v>
+      </c>
+      <c r="D133" s="7">
+        <v>0</v>
+      </c>
+      <c r="E133" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="8"/>
-      <c r="B134" s="12">
-        <v>154702.69</v>
-      </c>
-      <c r="C134" s="7">
-        <v>0</v>
-      </c>
-      <c r="D134" s="7">
-        <v>0</v>
-      </c>
-      <c r="E134" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="8"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="6"/>
+    </row>
+    <row r="135" spans="1:5" ht="42.75">
+      <c r="A135" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
+      <c r="C135" s="7">
+        <v>0</v>
+      </c>
       <c r="D135" s="7"/>
       <c r="E135" s="6"/>
     </row>
     <row r="136" spans="1:5" ht="42.75">
       <c r="A136" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="7">
-        <v>0</v>
+        <v>1105.4760000000001</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="6"/>
     </row>
-    <row r="137" spans="1:5" ht="42.75">
-      <c r="A137" s="8" t="s">
-        <v>49</v>
-      </c>
+    <row r="137" spans="1:5">
+      <c r="A137" s="8"/>
       <c r="B137" s="7"/>
-      <c r="C137" s="7">
-        <v>1105.7159999999999</v>
-      </c>
+      <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="8"/>
+    <row r="138" spans="1:5" ht="71.25">
+      <c r="A138" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
+      <c r="C138" s="13">
+        <v>26070.54</v>
+      </c>
       <c r="D138" s="7"/>
       <c r="E138" s="6"/>
     </row>
     <row r="139" spans="1:5" ht="71.25">
       <c r="A139" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="13">
-        <v>32823.69</v>
+        <v>6991.44</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="1:5" ht="71.25">
+    <row r="140" spans="1:5" ht="85.5">
       <c r="A140" s="8" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="13">
-        <v>8782.1299999999992</v>
+        <v>130779.74</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="1:5" ht="85.5">
+    <row r="141" spans="1:5" ht="57">
       <c r="A141" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="13">
-        <v>154702.69</v>
+        <v>130779.74</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" spans="1:5" ht="57">
-      <c r="A142" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B142" s="7"/>
-      <c r="C142" s="13">
-        <v>154702.69</v>
+    <row r="142" spans="1:5" ht="42.75">
+      <c r="A142" s="8"/>
+      <c r="B142" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C142" s="7">
+        <v>285.87</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="6"/>
@@ -2596,29 +2583,29 @@
     <row r="143" spans="1:5" ht="42.75">
       <c r="A143" s="8"/>
       <c r="B143" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C143" s="7">
-        <v>357.97</v>
+        <v>57.2</v>
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="1:5" ht="42.75">
+    <row r="144" spans="1:5" ht="57">
       <c r="A144" s="8"/>
       <c r="B144" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C144" s="7">
-        <v>71.86</v>
+        <v>0</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="1:5" ht="57">
+    <row r="145" spans="1:5" ht="71.25">
       <c r="A145" s="8"/>
       <c r="B145" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C145" s="7">
         <v>0</v>
@@ -2626,405 +2613,397 @@
       <c r="D145" s="7"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="1:5" ht="71.25">
-      <c r="A146" s="8"/>
-      <c r="B146" s="7" t="s">
+    <row r="146" spans="1:5" ht="85.5">
+      <c r="A146" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="71.25">
+      <c r="A147" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="85.5">
+      <c r="A148" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C146" s="7">
-        <v>0</v>
-      </c>
-      <c r="D146" s="7"/>
-      <c r="E146" s="6"/>
-    </row>
-    <row r="147" spans="1:5" ht="85.5">
-      <c r="A147" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="71.25">
-      <c r="A148" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="85.5">
-      <c r="A149" s="4" t="s">
+    </row>
+    <row r="150" spans="1:5" ht="71.25">
+      <c r="A150" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="28.5">
+      <c r="A151" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="57">
+      <c r="A152" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="42.75">
+      <c r="A153" s="21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="4" t="s">
+      <c r="B153" s="20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" ht="71.25">
-      <c r="A151" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="28.5">
-      <c r="A152" s="3" t="s">
+      <c r="C153" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E153" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="57">
+      <c r="A154" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B154" s="7">
+        <v>0</v>
+      </c>
+      <c r="C154" s="7">
+        <v>605</v>
+      </c>
+      <c r="D154" s="7">
+        <v>0</v>
+      </c>
+      <c r="E154" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="28.5">
+      <c r="A155" s="8"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="28.5">
+      <c r="A156" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B156" s="7"/>
+      <c r="C156" s="7">
+        <v>605</v>
+      </c>
+      <c r="D156" s="7">
+        <v>0</v>
+      </c>
+      <c r="E156" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="42.75">
+      <c r="A157" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B157" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" s="21"/>
+    </row>
+    <row r="158" spans="1:5" ht="42.75">
+      <c r="A158" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B158" s="7">
+        <v>8</v>
+      </c>
+      <c r="C158" s="7">
+        <v>11</v>
+      </c>
+      <c r="D158" s="7">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E158" s="8"/>
+    </row>
+    <row r="159" spans="1:5" ht="57">
+      <c r="A159" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="57">
-      <c r="A153" s="5" t="s">
+      <c r="B159" s="7">
+        <v>12</v>
+      </c>
+      <c r="C159" s="7">
+        <v>2</v>
+      </c>
+      <c r="D159" s="7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E159" s="8"/>
+    </row>
+    <row r="160" spans="1:5" ht="42.75">
+      <c r="A160" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="42.75">
-      <c r="A154" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B154" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E154" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="57">
-      <c r="A155" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B155" s="7">
-        <v>0</v>
-      </c>
-      <c r="C155" s="7">
-        <v>605</v>
-      </c>
-      <c r="D155" s="7">
-        <v>0</v>
-      </c>
-      <c r="E155" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="28.5">
-      <c r="A156" s="8"/>
-      <c r="B156" s="7"/>
-      <c r="C156" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E156" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="28.5">
-      <c r="A157" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B157" s="7"/>
-      <c r="C157" s="7">
-        <v>605</v>
-      </c>
-      <c r="D157" s="7">
-        <v>0</v>
-      </c>
-      <c r="E157" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="42.75">
-      <c r="A158" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B158" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C158" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E158" s="21"/>
-    </row>
-    <row r="159" spans="1:5" ht="42.75">
-      <c r="A159" s="8" t="s">
+      <c r="B160" s="7">
+        <v>24</v>
+      </c>
+      <c r="C160" s="7">
+        <v>5619</v>
+      </c>
+      <c r="D160" s="7">
+        <v>132.45599999999999</v>
+      </c>
+      <c r="E160" s="8"/>
+    </row>
+    <row r="161" spans="1:5" ht="57">
+      <c r="A161" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B159" s="7">
-        <v>8</v>
-      </c>
-      <c r="C159" s="7">
-        <v>11</v>
-      </c>
-      <c r="D159" s="7">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="E159" s="8"/>
-    </row>
-    <row r="160" spans="1:5" ht="57">
-      <c r="A160" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B160" s="7">
-        <v>12</v>
-      </c>
-      <c r="C160" s="7">
-        <v>2</v>
-      </c>
-      <c r="D160" s="7">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E160" s="8"/>
-    </row>
-    <row r="161" spans="1:5" ht="42.75">
-      <c r="A161" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="B161" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C161" s="7">
-        <v>4386</v>
+        <v>552</v>
       </c>
       <c r="D161" s="7">
-        <v>103.34399999999999</v>
+        <v>0</v>
       </c>
       <c r="E161" s="8"/>
     </row>
-    <row r="162" spans="1:5" ht="57">
+    <row r="162" spans="1:5" ht="42.75">
       <c r="A162" s="8" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="B162" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C162" s="7">
-        <v>8848</v>
+        <v>1276</v>
       </c>
       <c r="D162" s="7">
-        <v>0</v>
+        <v>60.287999999999997</v>
       </c>
       <c r="E162" s="8"/>
     </row>
     <row r="163" spans="1:5" ht="57">
       <c r="A163" s="8" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="B163" s="7">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="C163" s="7">
-        <v>1243</v>
+        <v>1391</v>
       </c>
       <c r="D163" s="7">
-        <v>29.352</v>
+        <v>296.13600000000002</v>
       </c>
       <c r="E163" s="8"/>
     </row>
-    <row r="164" spans="1:5" ht="42.75">
+    <row r="164" spans="1:5" ht="57">
       <c r="A164" s="8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B164" s="7">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="C164" s="7">
-        <v>1276</v>
+        <v>2570</v>
       </c>
       <c r="D164" s="7">
-        <v>60.287999999999997</v>
+        <v>367.2</v>
       </c>
       <c r="E164" s="8"/>
     </row>
-    <row r="165" spans="1:5" ht="57">
+    <row r="165" spans="1:5" ht="42.75">
       <c r="A165" s="8" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="B165" s="7">
         <v>216</v>
       </c>
       <c r="C165" s="7">
-        <v>1391</v>
+        <v>692</v>
       </c>
       <c r="D165" s="7">
-        <v>296.13600000000002</v>
+        <v>145.15199999999999</v>
       </c>
       <c r="E165" s="8"/>
     </row>
     <row r="166" spans="1:5" ht="57">
       <c r="A166" s="8" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B166" s="7">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="C166" s="7">
-        <v>2570</v>
+        <v>2186</v>
       </c>
       <c r="D166" s="7">
-        <v>367.2</v>
+        <v>103.968</v>
       </c>
       <c r="E166" s="8"/>
     </row>
-    <row r="167" spans="1:5" ht="42.75">
-      <c r="A167" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B167" s="7">
-        <v>216</v>
-      </c>
-      <c r="C167" s="7">
-        <v>692</v>
-      </c>
-      <c r="D167" s="7">
-        <v>145.15199999999999</v>
+    <row r="167" spans="1:5" ht="28.5">
+      <c r="A167" s="8"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="E167" s="8"/>
     </row>
-    <row r="168" spans="1:5" ht="57">
+    <row r="168" spans="1:5" ht="28.5">
       <c r="A168" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7">
+        <v>14299</v>
+      </c>
+      <c r="D168" s="7">
+        <v>1105.3119999999999</v>
+      </c>
+      <c r="E168" s="8"/>
+    </row>
+    <row r="169" spans="1:5" ht="85.5">
+      <c r="A169" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="71.25">
+      <c r="A170" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="114">
+      <c r="A171" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="71.25">
+      <c r="A173" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="28.5">
+      <c r="A174" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="57">
+      <c r="A175" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B168" s="7">
-        <v>48</v>
-      </c>
-      <c r="C168" s="7">
-        <v>2186</v>
-      </c>
-      <c r="D168" s="7">
-        <v>103.968</v>
-      </c>
-      <c r="E168" s="8"/>
-    </row>
-    <row r="169" spans="1:5" ht="28.5">
-      <c r="A169" s="8"/>
-      <c r="B169" s="7"/>
-      <c r="C169" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E169" s="8"/>
-    </row>
-    <row r="170" spans="1:5" ht="28.5">
-      <c r="A170" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B170" s="7"/>
-      <c r="C170" s="7">
-        <v>22605</v>
-      </c>
-      <c r="D170" s="7">
-        <v>1105.5519999999999</v>
-      </c>
-      <c r="E170" s="8"/>
-    </row>
-    <row r="171" spans="1:5" ht="85.5">
-      <c r="A171" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="71.25">
-      <c r="A172" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="114">
-      <c r="A173" s="4" t="s">
+    </row>
+    <row r="176" spans="1:5" ht="156.75">
+      <c r="A176" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="4" t="s">
+    <row r="177" spans="1:3" ht="185.25">
+      <c r="A177" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="71.25">
-      <c r="A175" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="28.5">
-      <c r="A176" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="57">
-      <c r="A177" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="156.75">
-      <c r="A178" s="22" t="s">
+    <row r="178" spans="1:3" ht="85.5">
+      <c r="A178" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="71.25">
+      <c r="A179" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="57">
+      <c r="A180" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="185.25">
-      <c r="A179" s="3" t="s">
+    <row r="181" spans="1:3">
+      <c r="A181" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="85.5">
-      <c r="A180" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="71.25">
-      <c r="A181" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="57">
-      <c r="A182" s="4" t="s">
+    <row r="182" spans="1:3" ht="71.25">
+      <c r="A182" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="28.5">
+      <c r="A183" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="28.5">
+      <c r="A184" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="4" t="s">
+    <row r="185" spans="1:3" ht="57">
+      <c r="A185" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A186" s="24" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" ht="71.25">
-      <c r="A184" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="28.5">
-      <c r="A185" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="28.5">
-      <c r="A186" s="3" t="s">
+      <c r="B186" s="24"/>
+      <c r="C186" s="23"/>
+    </row>
+    <row r="187" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A187" s="15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" ht="57">
-      <c r="A187" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A188" s="24" t="s">
+      <c r="B187" s="15"/>
+      <c r="C187" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B188" s="24"/>
-      <c r="C188" s="23"/>
-    </row>
-    <row r="189" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A189" s="15" t="s">
+      <c r="B188" s="9">
+        <v>0</v>
+      </c>
+      <c r="C188" s="17"/>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B189" s="15"/>
-      <c r="C189" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="B189" s="9">
+        <v>0</v>
+      </c>
+      <c r="C189" s="17"/>
+    </row>
+    <row r="190" spans="1:3" ht="28.5">
       <c r="A190" s="8" t="s">
         <v>74</v>
       </c>
@@ -3033,34 +3012,34 @@
       </c>
       <c r="C190" s="17"/>
     </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="8" t="s">
+    <row r="191" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A191" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B191" s="9">
-        <v>0</v>
-      </c>
-      <c r="C191" s="17"/>
-    </row>
-    <row r="192" spans="1:3" ht="28.5">
+      <c r="B191" s="15"/>
+      <c r="C191" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B192" s="9">
         <v>0</v>
       </c>
       <c r="C192" s="17"/>
     </row>
-    <row r="193" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A193" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B193" s="15"/>
-      <c r="C193" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+    <row r="193" spans="1:3">
+      <c r="A193" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B193" s="9">
+        <v>0</v>
+      </c>
+      <c r="C193" s="17"/>
+    </row>
+    <row r="194" spans="1:3" ht="28.5">
       <c r="A194" s="8" t="s">
         <v>74</v>
       </c>
@@ -3069,34 +3048,34 @@
       </c>
       <c r="C194" s="17"/>
     </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B195" s="9">
-        <v>0</v>
-      </c>
-      <c r="C195" s="17"/>
-    </row>
-    <row r="196" spans="1:3" ht="28.5">
+    <row r="195" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A195" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B195" s="15"/>
+      <c r="C195" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B196" s="9">
         <v>0</v>
       </c>
       <c r="C196" s="17"/>
     </row>
-    <row r="197" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A197" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B197" s="15"/>
-      <c r="C197" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+    <row r="197" spans="1:3">
+      <c r="A197" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B197" s="9">
+        <v>0</v>
+      </c>
+      <c r="C197" s="17"/>
+    </row>
+    <row r="198" spans="1:3" ht="28.5">
       <c r="A198" s="8" t="s">
         <v>74</v>
       </c>
@@ -3105,34 +3084,34 @@
       </c>
       <c r="C198" s="17"/>
     </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B199" s="9">
-        <v>0</v>
-      </c>
-      <c r="C199" s="17"/>
-    </row>
-    <row r="200" spans="1:3" ht="28.5">
+    <row r="199" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A199" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B199" s="15"/>
+      <c r="C199" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B200" s="9">
         <v>0</v>
       </c>
       <c r="C200" s="17"/>
     </row>
-    <row r="201" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A201" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B201" s="15"/>
-      <c r="C201" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+    <row r="201" spans="1:3">
+      <c r="A201" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B201" s="9">
+        <v>0</v>
+      </c>
+      <c r="C201" s="17"/>
+    </row>
+    <row r="202" spans="1:3" ht="28.5">
       <c r="A202" s="8" t="s">
         <v>74</v>
       </c>
@@ -3141,34 +3120,34 @@
       </c>
       <c r="C202" s="17"/>
     </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B203" s="9">
-        <v>0</v>
-      </c>
-      <c r="C203" s="17"/>
-    </row>
-    <row r="204" spans="1:3" ht="28.5">
+    <row r="203" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A203" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B203" s="15"/>
+      <c r="C203" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B204" s="9">
         <v>0</v>
       </c>
       <c r="C204" s="17"/>
     </row>
-    <row r="205" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A205" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B205" s="15"/>
-      <c r="C205" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+    <row r="205" spans="1:3">
+      <c r="A205" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B205" s="9">
+        <v>0</v>
+      </c>
+      <c r="C205" s="17"/>
+    </row>
+    <row r="206" spans="1:3" ht="28.5">
       <c r="A206" s="8" t="s">
         <v>74</v>
       </c>
@@ -3177,163 +3156,191 @@
       </c>
       <c r="C206" s="17"/>
     </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B207" s="9">
-        <v>0</v>
-      </c>
-      <c r="C207" s="17"/>
-    </row>
-    <row r="208" spans="1:3" ht="28.5">
+    <row r="207" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A207" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B207" s="15"/>
+      <c r="C207" s="16">
+        <v>30770</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B208" s="9">
-        <v>0</v>
-      </c>
-      <c r="C208" s="17"/>
-    </row>
-    <row r="209" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A209" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B209" s="15"/>
-      <c r="C209" s="16">
-        <v>32960</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>72</v>
+      </c>
+      <c r="B208" s="14">
+        <v>7348</v>
+      </c>
+      <c r="C208" s="16"/>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B209" s="14">
+        <v>23257</v>
+      </c>
+      <c r="C209" s="16"/>
+    </row>
+    <row r="210" spans="1:7" ht="28.5">
       <c r="A210" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B210" s="14">
-        <v>8548</v>
+      <c r="B210" s="9">
+        <v>165</v>
       </c>
       <c r="C210" s="16"/>
     </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B211" s="14">
-        <v>24247</v>
-      </c>
-      <c r="C211" s="16"/>
-    </row>
-    <row r="212" spans="1:3" ht="28.5">
-      <c r="A212" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B212" s="9">
-        <v>165</v>
-      </c>
-      <c r="C212" s="16"/>
-    </row>
-    <row r="213" spans="1:3" ht="28.5">
+    <row r="211" spans="1:7" ht="28.5">
+      <c r="A211" s="15"/>
+      <c r="B211" s="15"/>
+      <c r="C211" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B212" s="15"/>
+      <c r="C212" s="16">
+        <v>30770</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" s="15"/>
       <c r="B213" s="15"/>
-      <c r="C213" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="15" t="s">
+      <c r="C213" s="16"/>
+    </row>
+    <row r="214" spans="1:7" ht="99.75">
+      <c r="A214" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B214" s="23"/>
+    </row>
+    <row r="215" spans="1:7" ht="85.5">
+      <c r="A215" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B214" s="15"/>
-      <c r="C214" s="16">
-        <v>32960</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="15"/>
-      <c r="B215" s="15"/>
-      <c r="C215" s="16"/>
-    </row>
-    <row r="216" spans="1:3" ht="99.75">
-      <c r="A216" s="21" t="s">
+      <c r="B215" s="16">
+        <v>30770</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="8"/>
+      <c r="B216" s="16"/>
+    </row>
+    <row r="217" spans="1:7" ht="85.5">
+      <c r="A217" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="71.25">
+      <c r="A218" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="71.25">
+      <c r="A219" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B216" s="23"/>
-    </row>
-    <row r="217" spans="1:3" ht="85.5">
-      <c r="A217" s="8" t="s">
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B217" s="16">
-        <v>32960</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="8"/>
-      <c r="B218" s="16"/>
-    </row>
-    <row r="219" spans="1:3" ht="85.5">
-      <c r="A219" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="71.25">
-      <c r="A220" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="71.25">
-      <c r="A221" s="4" t="s">
+    </row>
+    <row r="221" spans="1:7" ht="71.25">
+      <c r="A221" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="28.5">
+      <c r="A222" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="57">
+      <c r="A223" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="71.25">
+      <c r="A224" s="21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="4" t="s">
+      <c r="B224" s="19" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" ht="71.25">
-      <c r="A223" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="28.5">
-      <c r="A224" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" ht="57">
-      <c r="A225" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" ht="71.25">
-      <c r="A226" s="21" t="s">
+      <c r="C224" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B226" s="19" t="s">
+      <c r="D224" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C226" s="19" t="s">
+      <c r="E224" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D226" s="19" t="s">
+      <c r="F224" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E226" s="20" t="s">
+      <c r="G224" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="42.75">
+      <c r="A225" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D225" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E225" s="7">
+        <v>57.08</v>
+      </c>
+      <c r="F225" s="7">
+        <v>144.88999999999999</v>
+      </c>
+      <c r="G225" s="11">
+        <v>8270.32</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="42.75">
+      <c r="A226" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B226" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F226" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G226" s="18" t="s">
-        <v>62</v>
+      <c r="C226" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D226" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E226" s="7">
+        <v>191.26</v>
+      </c>
+      <c r="F226" s="7">
+        <v>144.88999999999999</v>
+      </c>
+      <c r="G226" s="11">
+        <v>27711.66</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="42.75">
       <c r="A227" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C227" s="10" t="s">
         <v>116</v>
@@ -3342,21 +3349,21 @@
         <v>117</v>
       </c>
       <c r="E227" s="7">
-        <v>57.08</v>
+        <v>0</v>
       </c>
       <c r="F227" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G227" s="11">
-        <v>8270.32</v>
+      <c r="G227" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="42.75">
       <c r="A228" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C228" s="10" t="s">
         <v>116</v>
@@ -3365,107 +3372,61 @@
         <v>117</v>
       </c>
       <c r="E228" s="7">
-        <v>263.35000000000002</v>
+        <v>37.369999999999997</v>
       </c>
       <c r="F228" s="7">
         <v>144.88999999999999</v>
       </c>
       <c r="G228" s="11">
-        <v>38156.78</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" ht="42.75">
-      <c r="A229" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B229" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C229" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D229" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E229" s="7">
-        <v>0</v>
-      </c>
-      <c r="F229" s="7">
-        <v>144.88999999999999</v>
-      </c>
-      <c r="G229" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" ht="42.75">
-      <c r="A230" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B230" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C230" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D230" s="10" t="s">
-        <v>117</v>
-      </c>
+        <v>5414.54</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="28.5">
+      <c r="A229" s="8"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="10"/>
+      <c r="E229" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F229" s="7"/>
+      <c r="G229" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="8"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="10"/>
       <c r="E230" s="7">
-        <v>37.369999999999997</v>
-      </c>
-      <c r="F230" s="7">
-        <v>144.88999999999999</v>
-      </c>
+        <v>285.70999999999998</v>
+      </c>
+      <c r="F230" s="7"/>
       <c r="G230" s="11">
-        <v>5414.54</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" ht="28.5">
-      <c r="A231" s="8"/>
-      <c r="B231" s="10"/>
-      <c r="C231" s="10"/>
-      <c r="D231" s="10"/>
-      <c r="E231" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F231" s="7"/>
-      <c r="G231" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="8"/>
-      <c r="B232" s="10"/>
-      <c r="C232" s="10"/>
-      <c r="D232" s="10"/>
-      <c r="E232" s="7">
-        <v>357.8</v>
-      </c>
-      <c r="F232" s="7"/>
-      <c r="G232" s="11">
-        <v>51866.22</v>
+        <v>41420.33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="C195:C198"/>
+    <mergeCell ref="C199:C202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="C203:C206"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:C190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="C191:C194"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="C207:C210"/>
+    <mergeCell ref="A211:B211"/>
     <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="C189:C192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="C197:C200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="C201:C204"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="C205:C208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="C209:C212"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="B215:B216"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
